--- a/data/STC_effort_sizing.xlsx
+++ b/data/STC_effort_sizing.xlsx
@@ -705,7 +705,7 @@
   <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="D1" sqref="D1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1183,7 +1183,7 @@
         <v>40</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" ref="D16:M16" si="9">SUM(E17:E18)</f>
+        <f t="shared" ref="E16:M16" si="9">SUM(E17:E18)</f>
         <v>0</v>
       </c>
       <c r="F16" s="26">
